--- a/AGTF30e/SimSetup/AGTF30e_Inputs.xlsx
+++ b/AGTF30e/SimSetup/AGTF30e_Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nasa-my.sharepoint.com/personal/jlkratz_ndc_nasa_gov/Documents/Work/Mdls/AGTF30e_v1_0/AGTF30e/SimSetup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nasa-my.sharepoint.com/personal/jlkratz_ndc_nasa_gov/Documents/Work/Mdls/AGTF30e_v1_1_0/AGTF30e/SimSetup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="655" documentId="8_{95FF5A56-0AB9-48E6-BAA7-32EE73220286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D82FB6E-400C-474C-AD64-A52DB7BAFFCA}"/>
+  <xr:revisionPtr revIDLastSave="662" documentId="8_{95FF5A56-0AB9-48E6-BAA7-32EE73220286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DBB1D8-1C57-43A0-92DC-E16D4F9E956E}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="15" windowWidth="17910" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burst and Chop" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="178">
   <si>
     <t>Altitude</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>1 - HP Sun/LP Ring, 2 - HP Sun/LP Carrier, 3 - HP Ring/LP Sun, 4 - HP Ring/LP Carrier, 5 - HP Carrier/LP Sun, 6 - HP Carrier/LP Ring (NOTE: only option 2 Is valid for used with the default settings and controller defined in the setup files)</t>
+  </si>
+  <si>
+    <t>Electric Power System Loss Option:</t>
+  </si>
+  <si>
+    <t>1 - No Losses (idealistic), 2 - Losses (realistic)</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1208,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,46 +1250,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1536,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14A97F-9A95-4139-8C03-C3649632EC7D}">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,10 +2218,10 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2330,14 +2342,14 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:57" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="A13" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="62">
         <v>1</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2393,15 +2405,15 @@
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
     </row>
-    <row r="14" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B14" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2459,13 +2471,13 @@
     </row>
     <row r="15" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B15" s="54">
         <v>2</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2521,15 +2533,15 @@
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
     </row>
-    <row r="16" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
+    <row r="16" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="54">
+        <v>2</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2586,24 +2598,30 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -2644,996 +2662,1020 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+    </row>
+    <row r="19" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="J18" s="70" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="J19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="74"/>
-      <c r="BI18" s="61" t="s">
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="76"/>
+      <c r="BI19" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="BJ18" s="62"/>
-      <c r="BL18" s="61" t="s">
+      <c r="BJ19" s="72"/>
+      <c r="BL19" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="BM18" s="62"/>
-      <c r="BO18" t="s">
+      <c r="BM19" s="72"/>
+      <c r="BO19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="77" t="s">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="77" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="65" t="s">
+      <c r="F20" s="78"/>
+      <c r="G20" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="J19" s="77" t="s">
+      <c r="H20" s="65"/>
+      <c r="J20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="75" t="s">
+      <c r="K20" s="78"/>
+      <c r="L20" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="75" t="s">
+      <c r="M20" s="80"/>
+      <c r="N20" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="76"/>
-      <c r="P19" s="75" t="s">
+      <c r="O20" s="80"/>
+      <c r="P20" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77" t="s">
+      <c r="Q20" s="80"/>
+      <c r="R20" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="78"/>
-      <c r="T19" s="77" t="s">
+      <c r="S20" s="78"/>
+      <c r="T20" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="78"/>
-      <c r="V19" s="77" t="s">
+      <c r="U20" s="78"/>
+      <c r="V20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="77" t="s">
+      <c r="W20" s="78"/>
+      <c r="X20" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="65" t="s">
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="65" t="s">
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="65" t="s">
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="65" t="s">
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="65" t="s">
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="65" t="s">
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="65" t="s">
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="65" t="s">
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="65" t="s">
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="65" t="s">
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="65" t="s">
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="65" t="s">
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="65" t="s">
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="65" t="s">
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="65" t="s">
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="65" t="s">
+      <c r="BC20" s="64"/>
+      <c r="BD20" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="63" t="s">
+      <c r="BE20" s="64"/>
+      <c r="BF20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="BG19" s="64"/>
-      <c r="BI19" s="63" t="s">
+      <c r="BG20" s="74"/>
+      <c r="BI20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BJ19" s="64"/>
-      <c r="BL19" s="63" t="s">
+      <c r="BJ20" s="74"/>
+      <c r="BL20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BM19" s="64"/>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="BM20" s="74"/>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L21" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M21" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N21" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="48" t="s">
+      <c r="O21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q21" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R21" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="25" t="s">
+      <c r="V21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="25" t="s">
+      <c r="X21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="29" t="s">
+      <c r="Z21" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AA20" s="32" t="s">
+      <c r="AA21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AB20" s="33" t="s">
+      <c r="AB21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="32" t="s">
+      <c r="AC21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AD20" s="33" t="s">
+      <c r="AD21" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AE20" s="32" t="s">
+      <c r="AE21" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AF20" s="33" t="s">
+      <c r="AF21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="AG20" s="32" t="s">
+      <c r="AG21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="AH20" s="33" t="s">
+      <c r="AH21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AI20" s="32" t="s">
+      <c r="AI21" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="AJ20" s="33" t="s">
+      <c r="AJ21" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AK20" s="32" t="s">
+      <c r="AK21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AL20" s="33" t="s">
+      <c r="AL21" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="AM20" s="32" t="s">
+      <c r="AM21" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AN20" s="33" t="s">
+      <c r="AN21" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AO20" s="32" t="s">
+      <c r="AO21" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AP20" s="33" t="s">
+      <c r="AP21" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AQ20" s="32" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AR20" s="33" t="s">
+      <c r="AR21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AS20" s="32" t="s">
+      <c r="AS21" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="AT20" s="33" t="s">
+      <c r="AT21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="AU20" s="32" t="s">
+      <c r="AU21" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AV20" s="33" t="s">
+      <c r="AV21" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="AW20" s="32" t="s">
+      <c r="AW21" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AX20" s="33" t="s">
+      <c r="AX21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="AY20" s="32" t="s">
+      <c r="AY21" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AZ20" s="33" t="s">
+      <c r="AZ21" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="BA20" s="32" t="s">
+      <c r="BA21" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="BB20" s="33" t="s">
+      <c r="BB21" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BC20" s="32" t="s">
+      <c r="BC21" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="BD20" s="33" t="s">
+      <c r="BD21" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="BE20" s="32" t="s">
+      <c r="BE21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="BF20" s="5" t="s">
+      <c r="BF21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BG20" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI20" s="20" t="s">
+      <c r="BG21" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="BJ20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="20" t="s">
+      <c r="BJ21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="BM20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="BM21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA21" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF21" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AG21" s="11" t="s">
+      <c r="AG22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH21" s="10" t="s">
+      <c r="AH22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AI21" s="11" t="s">
+      <c r="AI22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ21" s="10" t="s">
+      <c r="AJ22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AK22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL21" s="10" t="s">
+      <c r="AL22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AM22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="10" t="s">
+      <c r="AN22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AO22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="10" t="s">
+      <c r="AP22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AQ21" s="11" t="s">
+      <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="10" t="s">
+      <c r="AR22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AS21" s="11" t="s">
+      <c r="AS22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="10" t="s">
+      <c r="AT22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AU22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV21" s="10" t="s">
+      <c r="AV22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AW21" s="11" t="s">
+      <c r="AW22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX21" s="10" t="s">
+      <c r="AX22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AY21" s="11" t="s">
+      <c r="AY22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ21" s="10" t="s">
+      <c r="AZ22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BA21" s="11" t="s">
+      <c r="BA22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB21" s="10" t="s">
+      <c r="BB22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BC21" s="11" t="s">
+      <c r="BC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BD21" s="10" t="s">
+      <c r="BD22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BE21" s="11" t="s">
+      <c r="BE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BF21" s="4" t="s">
+      <c r="BF22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BG21" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="20" t="s">
+      <c r="BG22" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="BJ21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="37" t="s">
+      <c r="BJ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="BM21" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:68" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>0</v>
-      </c>
-      <c r="B22" s="27">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="38">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39">
+      <c r="BM22" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>0</v>
+      </c>
+      <c r="B23" s="27">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0</v>
+      </c>
+      <c r="H23" s="39">
         <v>175</v>
       </c>
-      <c r="J22" s="31">
-        <v>0</v>
-      </c>
-      <c r="K22" s="30">
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30">
         <v>40</v>
       </c>
-      <c r="L22" s="41">
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="41">
-        <v>0</v>
-      </c>
-      <c r="O22" s="42">
-        <v>0</v>
-      </c>
-      <c r="P22" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="44">
-        <v>0</v>
-      </c>
-      <c r="R22" s="23">
-        <v>0</v>
-      </c>
-      <c r="S22" s="24">
+      <c r="L23" s="41">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45">
+        <v>0</v>
+      </c>
+      <c r="N23" s="41">
+        <v>0</v>
+      </c>
+      <c r="O23" s="42">
+        <v>0</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>0</v>
+      </c>
+      <c r="R23" s="23">
+        <v>0</v>
+      </c>
+      <c r="S23" s="24">
         <v>2003.2</v>
       </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="30">
-        <v>1.5379</v>
-      </c>
-      <c r="V22" s="23">
-        <v>0</v>
-      </c>
-      <c r="W22" s="27">
-        <v>0</v>
-      </c>
-      <c r="X22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="30">
-        <v>6105.5</v>
-      </c>
-      <c r="Z22" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="30">
-        <v>-350</v>
-      </c>
-      <c r="AF22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="33">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="38">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="40">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="32">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG22" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="25">
-        <v>10</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <v>10</v>
-      </c>
-      <c r="H23" s="34">
-        <v>175</v>
-      </c>
-      <c r="J23" s="33">
-        <v>10</v>
-      </c>
-      <c r="K23" s="32">
-        <v>40</v>
-      </c>
-      <c r="L23" s="47">
-        <v>10</v>
-      </c>
-      <c r="M23" s="46">
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
-        <v>10</v>
-      </c>
-      <c r="O23" s="48">
-        <v>0</v>
-      </c>
-      <c r="P23" s="47">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="48">
-        <v>0</v>
-      </c>
-      <c r="R23" s="25">
-        <v>10</v>
-      </c>
-      <c r="S23" s="26">
-        <v>2003.2</v>
-      </c>
-      <c r="T23" s="2">
-        <v>10</v>
+      <c r="T23" s="14">
+        <v>0</v>
       </c>
       <c r="U23" s="30">
         <v>1.5379</v>
       </c>
-      <c r="V23" s="25">
+      <c r="V23" s="23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="27">
+        <v>0</v>
+      </c>
+      <c r="X23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="30">
+        <v>6105.5</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="30">
+        <v>-350</v>
+      </c>
+      <c r="AF23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="33">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="33">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="32">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>10</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="25">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
         <v>10</v>
       </c>
-      <c r="Y23" s="32">
-        <v>6105.5</v>
-      </c>
-      <c r="Z23" s="29">
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="AA23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="33">
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>10</v>
       </c>
-      <c r="AC23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="33">
+      <c r="H24" s="34">
+        <v>175</v>
+      </c>
+      <c r="J24" s="33">
         <v>10</v>
       </c>
-      <c r="AE23" s="32">
-        <v>-350</v>
-      </c>
-      <c r="AF23" s="33">
+      <c r="K24" s="32">
+        <v>40</v>
+      </c>
+      <c r="L24" s="47">
         <v>10</v>
       </c>
-      <c r="AG23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="33">
+      <c r="M24" s="46">
+        <v>0</v>
+      </c>
+      <c r="N24" s="47">
         <v>10</v>
       </c>
-      <c r="AI23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="33">
+      <c r="O24" s="48">
+        <v>0</v>
+      </c>
+      <c r="P24" s="47">
         <v>10</v>
       </c>
-      <c r="AK23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="33">
+      <c r="Q24" s="48">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
         <v>10</v>
       </c>
-      <c r="AM23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="33">
+      <c r="S24" s="26">
+        <v>2003.2</v>
+      </c>
+      <c r="T24" s="2">
         <v>10</v>
-      </c>
-      <c r="AO23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AQ23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AU23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AW23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AY23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BA23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BC23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BE23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG23" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL23" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM23" s="62"/>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="J24" s="33">
-        <v>10.015000000000001</v>
-      </c>
-      <c r="K24" s="32">
-        <v>80</v>
-      </c>
-      <c r="T24" s="2">
-        <v>60</v>
       </c>
       <c r="U24" s="30">
         <v>1.5379</v>
       </c>
-      <c r="AG24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="BE24" s="32"/>
+      <c r="V24" s="25">
+        <v>10</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="25">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>6105.5</v>
+      </c>
+      <c r="Z24" s="29">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>-350</v>
+      </c>
+      <c r="AF24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AU24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AW24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AY24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BA24" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BC24" s="32">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BE24" s="32">
+        <v>0</v>
+      </c>
       <c r="BF24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BG24" s="34">
         <v>0</v>
       </c>
       <c r="BI24" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ24" s="21">
         <v>0</v>
       </c>
-      <c r="BL24" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM24" s="64"/>
+      <c r="BL24" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM24" s="72"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="J25" s="33">
-        <v>40</v>
+        <v>10.015000000000001</v>
       </c>
       <c r="K25" s="32">
         <v>80</v>
       </c>
       <c r="T25" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U25" s="30">
         <v>1.5379</v>
@@ -3643,57 +3685,61 @@
       <c r="AW25" s="32"/>
       <c r="BE25" s="32"/>
       <c r="BF25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BG25" s="34">
         <v>0</v>
       </c>
       <c r="BI25" s="22" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="BJ25" s="21">
         <v>0</v>
       </c>
-      <c r="BL25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL25" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM25" s="74"/>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="J26" s="33">
-        <v>40.015000000000001</v>
+        <v>40</v>
       </c>
       <c r="K26" s="32">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="T26" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" s="30">
+        <v>1.5379</v>
       </c>
       <c r="AG26" s="32"/>
       <c r="AO26" s="32"/>
       <c r="AW26" s="32"/>
       <c r="BE26" s="32"/>
       <c r="BF26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BG26" s="34">
         <v>0</v>
       </c>
       <c r="BI26" s="22" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="BJ26" s="21">
         <v>0</v>
       </c>
-      <c r="BL26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM26" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BL26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="33">
-        <v>90</v>
+        <v>40.015000000000001</v>
       </c>
       <c r="K27" s="32">
         <v>40</v>
@@ -3703,28 +3749,43 @@
       <c r="AW27" s="32"/>
       <c r="BE27" s="32"/>
       <c r="BF27" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BG27" s="34">
         <v>0</v>
       </c>
       <c r="BI27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BJ27" s="21">
         <v>0</v>
       </c>
+      <c r="BL27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM27" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="J28" s="33">
+        <v>90</v>
+      </c>
+      <c r="K28" s="32">
+        <v>40</v>
+      </c>
+      <c r="AG28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AW28" s="32"/>
       <c r="BE28" s="32"/>
       <c r="BF28" s="5" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="BG28" s="34">
         <v>0</v>
       </c>
       <c r="BI28" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ28" s="21">
         <v>0</v>
@@ -3733,13 +3794,13 @@
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="BE29" s="32"/>
       <c r="BF29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BG29" s="34">
         <v>0</v>
       </c>
       <c r="BI29" s="22" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="BJ29" s="21">
         <v>0</v>
@@ -3748,30 +3809,28 @@
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="BE30" s="32"/>
       <c r="BF30" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BG30" s="34">
         <v>0</v>
       </c>
       <c r="BI30" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BJ30" s="21">
         <v>0</v>
       </c>
-      <c r="BO30" s="9"/>
-      <c r="BP30" s="50"/>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="BE31" s="32"/>
       <c r="BF31" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BG31" s="34">
         <v>0</v>
       </c>
       <c r="BI31" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BJ31" s="21">
         <v>0</v>
@@ -3782,28 +3841,30 @@
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="BE32" s="32"/>
       <c r="BF32" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG32" s="34">
         <v>0</v>
       </c>
       <c r="BI32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BJ32" s="21">
         <v>0</v>
       </c>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="50"/>
     </row>
     <row r="33" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE33" s="32"/>
       <c r="BF33" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BG33" s="34">
         <v>0</v>
       </c>
       <c r="BI33" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BJ33" s="21">
         <v>0</v>
@@ -3812,13 +3873,13 @@
     <row r="34" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE34" s="32"/>
       <c r="BF34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BG34" s="34">
         <v>0</v>
       </c>
       <c r="BI34" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BJ34" s="21">
         <v>0</v>
@@ -3827,13 +3888,13 @@
     <row r="35" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE35" s="32"/>
       <c r="BF35" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BG35" s="34">
         <v>0</v>
       </c>
       <c r="BI35" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BJ35" s="21">
         <v>0</v>
@@ -3842,13 +3903,13 @@
     <row r="36" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE36" s="32"/>
       <c r="BF36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG36" s="34">
         <v>0</v>
       </c>
       <c r="BI36" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BJ36" s="21">
         <v>0</v>
@@ -3857,13 +3918,13 @@
     <row r="37" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE37" s="32"/>
       <c r="BF37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BG37" s="34">
         <v>0</v>
       </c>
       <c r="BI37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ37" s="21">
         <v>0</v>
@@ -3872,36 +3933,43 @@
     <row r="38" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BE38" s="32"/>
       <c r="BF38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG38" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ38" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="57:62" x14ac:dyDescent="0.25">
+      <c r="BE39" s="32"/>
+      <c r="BF39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="BG38" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI38" s="22" t="s">
+      <c r="BG39" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BJ38" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="57:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BE39" s="32"/>
-      <c r="BF39" s="6" t="s">
+      <c r="BJ39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="57:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="BG39" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI39" s="22" t="s">
+      <c r="BG40" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="BJ39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="57:62" x14ac:dyDescent="0.25">
-      <c r="BI40" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="BJ40" s="21">
         <v>0</v>
@@ -3909,7 +3977,7 @@
     </row>
     <row r="41" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI41" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BJ41" s="21">
         <v>0</v>
@@ -3917,7 +3985,7 @@
     </row>
     <row r="42" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI42" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BJ42" s="21">
         <v>0</v>
@@ -3925,7 +3993,7 @@
     </row>
     <row r="43" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI43" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BJ43" s="21">
         <v>0</v>
@@ -3933,7 +4001,7 @@
     </row>
     <row r="44" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI44" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BJ44" s="21">
         <v>0</v>
@@ -3941,7 +4009,7 @@
     </row>
     <row r="45" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI45" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BJ45" s="21">
         <v>0</v>
@@ -3949,7 +4017,7 @@
     </row>
     <row r="46" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI46" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BJ46" s="21">
         <v>0</v>
@@ -3957,60 +4025,68 @@
     </row>
     <row r="47" spans="57:62" x14ac:dyDescent="0.25">
       <c r="BI47" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ47" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="57:62" x14ac:dyDescent="0.25">
+      <c r="BI48" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="BJ47" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="57:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BI48" s="35" t="s">
+      <c r="BJ48" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="61:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI49" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BJ48" s="36">
+      <c r="BJ49" s="36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="BL23:BM23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="BL24:BM24"/>
+    <mergeCell ref="BL25:BM25"/>
+    <mergeCell ref="BI20:BJ20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="BL19:BM19"/>
+    <mergeCell ref="BL20:BM20"/>
+    <mergeCell ref="J19:BG19"/>
     <mergeCell ref="BI19:BJ19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="BL18:BM18"/>
-    <mergeCell ref="BL19:BM19"/>
-    <mergeCell ref="J18:BG18"/>
-    <mergeCell ref="BI18:BJ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4019,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FAB9F9-877D-4004-A397-F23718A20B52}">
-  <dimension ref="A1:BO48"/>
+  <dimension ref="A1:BO49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="BA18" workbookViewId="0">
+      <selection activeCell="BG21" sqref="BG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,10 +4765,10 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -4813,14 +4889,14 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:57" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="A13" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="62">
         <v>1</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4876,15 +4952,15 @@
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
     </row>
-    <row r="14" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B14" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4942,13 +5018,13 @@
     </row>
     <row r="15" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B15" s="54">
         <v>2</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -5004,15 +5080,15 @@
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
     </row>
-    <row r="16" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
+    <row r="16" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="54">
+        <v>2</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -5069,24 +5145,30 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -5127,1020 +5209,1032 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+    </row>
+    <row r="19" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="J18" s="70" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="J19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="74"/>
-      <c r="BI18" s="61" t="s">
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="76"/>
+      <c r="BI19" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="BJ18" s="62"/>
-      <c r="BL18" s="61" t="s">
+      <c r="BJ19" s="72"/>
+      <c r="BL19" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="BM18" s="62"/>
-      <c r="BO18" t="s">
+      <c r="BM19" s="72"/>
+      <c r="BO19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="77" t="s">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="77" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="65" t="s">
+      <c r="F20" s="78"/>
+      <c r="G20" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="J19" s="77" t="s">
+      <c r="H20" s="65"/>
+      <c r="J20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="75" t="s">
+      <c r="K20" s="78"/>
+      <c r="L20" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="75" t="s">
+      <c r="M20" s="80"/>
+      <c r="N20" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="76"/>
-      <c r="P19" s="75" t="s">
+      <c r="O20" s="80"/>
+      <c r="P20" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77" t="s">
+      <c r="Q20" s="80"/>
+      <c r="R20" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="78"/>
-      <c r="T19" s="77" t="s">
+      <c r="S20" s="78"/>
+      <c r="T20" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="78"/>
-      <c r="V19" s="77" t="s">
+      <c r="U20" s="78"/>
+      <c r="V20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="77" t="s">
+      <c r="W20" s="78"/>
+      <c r="X20" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="65" t="s">
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="65" t="s">
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="65" t="s">
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="65" t="s">
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="65" t="s">
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="65" t="s">
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="65" t="s">
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="65" t="s">
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="65" t="s">
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="65" t="s">
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="65" t="s">
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="65" t="s">
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="65" t="s">
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="65" t="s">
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="65" t="s">
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="65" t="s">
+      <c r="BC20" s="64"/>
+      <c r="BD20" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="63" t="s">
+      <c r="BE20" s="64"/>
+      <c r="BF20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="BG19" s="64"/>
-      <c r="BI19" s="63" t="s">
+      <c r="BG20" s="74"/>
+      <c r="BI20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BJ19" s="64"/>
-      <c r="BL19" s="63" t="s">
+      <c r="BJ20" s="74"/>
+      <c r="BL20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BM19" s="64"/>
-    </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="BM20" s="74"/>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L21" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M21" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N21" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="48" t="s">
+      <c r="O21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q21" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R21" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S21" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="33" t="s">
+      <c r="V21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="32" t="s">
+      <c r="W21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="33" t="s">
+      <c r="X21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="Y20" s="32" t="s">
+      <c r="Y21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="33" t="s">
+      <c r="Z21" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AA20" s="32" t="s">
+      <c r="AA21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AB20" s="33" t="s">
+      <c r="AB21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="32" t="s">
+      <c r="AC21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AD20" s="33" t="s">
+      <c r="AD21" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AE20" s="32" t="s">
+      <c r="AE21" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AF20" s="33" t="s">
+      <c r="AF21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="AG20" s="32" t="s">
+      <c r="AG21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="AH20" s="33" t="s">
+      <c r="AH21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AI20" s="32" t="s">
+      <c r="AI21" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="AJ20" s="33" t="s">
+      <c r="AJ21" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AK20" s="32" t="s">
+      <c r="AK21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AL20" s="33" t="s">
+      <c r="AL21" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="AM20" s="32" t="s">
+      <c r="AM21" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AN20" s="33" t="s">
+      <c r="AN21" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AO20" s="32" t="s">
+      <c r="AO21" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AP20" s="33" t="s">
+      <c r="AP21" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AQ20" s="32" t="s">
+      <c r="AQ21" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AR20" s="33" t="s">
+      <c r="AR21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AS20" s="32" t="s">
+      <c r="AS21" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="AT20" s="33" t="s">
+      <c r="AT21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="AU20" s="32" t="s">
+      <c r="AU21" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AV20" s="33" t="s">
+      <c r="AV21" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="AW20" s="32" t="s">
+      <c r="AW21" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AX20" s="33" t="s">
+      <c r="AX21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="AY20" s="32" t="s">
+      <c r="AY21" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AZ20" s="33" t="s">
+      <c r="AZ21" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="BA20" s="32" t="s">
+      <c r="BA21" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="BB20" s="33" t="s">
+      <c r="BB21" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BC20" s="32" t="s">
+      <c r="BC21" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="BD20" s="33" t="s">
+      <c r="BD21" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="BE20" s="32" t="s">
+      <c r="BE21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="BF20" s="5" t="s">
+      <c r="BF21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BG20" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI20" s="20" t="s">
+      <c r="BG21" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="BJ20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="20" t="s">
+      <c r="BJ21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="BM20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="BM21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA21" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF21" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AG21" s="11" t="s">
+      <c r="AG22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH21" s="10" t="s">
+      <c r="AH22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AI21" s="11" t="s">
+      <c r="AI22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ21" s="10" t="s">
+      <c r="AJ22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AK22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL21" s="10" t="s">
+      <c r="AL22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AM22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="10" t="s">
+      <c r="AN22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AO22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="10" t="s">
+      <c r="AP22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AQ21" s="11" t="s">
+      <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="10" t="s">
+      <c r="AR22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AS21" s="11" t="s">
+      <c r="AS22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="10" t="s">
+      <c r="AT22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AU22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV21" s="10" t="s">
+      <c r="AV22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AW21" s="11" t="s">
+      <c r="AW22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX21" s="10" t="s">
+      <c r="AX22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AY21" s="11" t="s">
+      <c r="AY22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ21" s="10" t="s">
+      <c r="AZ22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BA21" s="11" t="s">
+      <c r="BA22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB21" s="10" t="s">
+      <c r="BB22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BC21" s="11" t="s">
+      <c r="BC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BD21" s="10" t="s">
+      <c r="BD22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BE21" s="11" t="s">
+      <c r="BE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BF21" s="4" t="s">
+      <c r="BF22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BG21" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="20" t="s">
+      <c r="BG22" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="BJ21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="37" t="s">
+      <c r="BJ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="BM21" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>0</v>
-      </c>
-      <c r="B22" s="57">
-        <v>0</v>
-      </c>
-      <c r="C22" s="56">
-        <v>0</v>
-      </c>
-      <c r="D22" s="58">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="56">
-        <v>0</v>
-      </c>
-      <c r="H22" s="58">
+      <c r="BM22" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>0</v>
+      </c>
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="56">
+        <v>0</v>
+      </c>
+      <c r="D23" s="58">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>0</v>
+      </c>
+      <c r="H23" s="58">
         <v>175</v>
       </c>
-      <c r="J22" s="56">
-        <v>0</v>
-      </c>
-      <c r="K22" s="57">
+      <c r="J23" s="56">
+        <v>0</v>
+      </c>
+      <c r="K23" s="57">
         <v>40</v>
       </c>
-      <c r="L22" s="59">
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="59">
-        <v>0</v>
-      </c>
-      <c r="O22" s="60">
-        <v>0</v>
-      </c>
-      <c r="P22" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="60">
-        <v>0</v>
-      </c>
-      <c r="R22" s="56">
-        <v>0</v>
-      </c>
-      <c r="S22" s="58">
+      <c r="L23" s="59">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45">
+        <v>0</v>
+      </c>
+      <c r="N23" s="59">
+        <v>0</v>
+      </c>
+      <c r="O23" s="60">
+        <v>0</v>
+      </c>
+      <c r="P23" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="60">
+        <v>0</v>
+      </c>
+      <c r="R23" s="56">
+        <v>0</v>
+      </c>
+      <c r="S23" s="58">
         <v>2003.2</v>
       </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="57">
-        <v>1.5379</v>
-      </c>
-      <c r="V22" s="56">
-        <v>0</v>
-      </c>
-      <c r="W22" s="57">
-        <v>0</v>
-      </c>
-      <c r="X22" s="56">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="57">
-        <v>6105.5</v>
-      </c>
-      <c r="Z22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="57">
-        <v>-350</v>
-      </c>
-      <c r="AF22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="56">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="33">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="56">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="57">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="32">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG22" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>600</v>
-      </c>
-      <c r="B23" s="32">
-        <v>0</v>
-      </c>
-      <c r="C23" s="33">
-        <v>10</v>
-      </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>580</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <v>10</v>
-      </c>
-      <c r="H23" s="34">
-        <v>175</v>
-      </c>
-      <c r="J23" s="33">
-        <v>100</v>
-      </c>
-      <c r="K23" s="32">
-        <v>40</v>
-      </c>
-      <c r="L23" s="47">
-        <v>10</v>
-      </c>
-      <c r="M23" s="46">
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
-        <v>10</v>
-      </c>
-      <c r="O23" s="48">
-        <v>0</v>
-      </c>
-      <c r="P23" s="47">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="48">
-        <v>0</v>
-      </c>
-      <c r="R23" s="33">
-        <v>10</v>
-      </c>
-      <c r="S23" s="34">
-        <v>2003.2</v>
-      </c>
-      <c r="T23" s="2">
-        <v>10</v>
+      <c r="T23" s="14">
+        <v>0</v>
       </c>
       <c r="U23" s="57">
         <v>1.5379</v>
       </c>
-      <c r="V23" s="33">
+      <c r="V23" s="56">
+        <v>0</v>
+      </c>
+      <c r="W23" s="57">
+        <v>0</v>
+      </c>
+      <c r="X23" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="57">
+        <v>6105.5</v>
+      </c>
+      <c r="Z23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="57">
+        <v>-350</v>
+      </c>
+      <c r="AF23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="33">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="56">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="57">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="33">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="32">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>600</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
         <v>10</v>
       </c>
-      <c r="W23" s="32">
-        <v>0</v>
-      </c>
-      <c r="X23" s="33">
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>580</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>10</v>
       </c>
-      <c r="Y23" s="32">
-        <v>6105.5</v>
-      </c>
-      <c r="Z23" s="33">
+      <c r="H24" s="34">
+        <v>175</v>
+      </c>
+      <c r="J24" s="33">
+        <v>100</v>
+      </c>
+      <c r="K24" s="32">
+        <v>40</v>
+      </c>
+      <c r="L24" s="47">
         <v>10</v>
       </c>
-      <c r="AA23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="33">
+      <c r="M24" s="46">
+        <v>0</v>
+      </c>
+      <c r="N24" s="47">
         <v>10</v>
       </c>
-      <c r="AC23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="33">
+      <c r="O24" s="48">
+        <v>0</v>
+      </c>
+      <c r="P24" s="47">
         <v>10</v>
       </c>
-      <c r="AE23" s="32">
-        <v>-350</v>
-      </c>
-      <c r="AF23" s="33">
+      <c r="Q24" s="48">
+        <v>0</v>
+      </c>
+      <c r="R24" s="33">
         <v>10</v>
       </c>
-      <c r="AG23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="33">
+      <c r="S24" s="34">
+        <v>2003.2</v>
+      </c>
+      <c r="T24" s="2">
         <v>10</v>
-      </c>
-      <c r="AI23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AK23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AM23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AO23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AQ23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AU23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AW23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="33">
-        <v>10</v>
-      </c>
-      <c r="AY23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BA23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BC23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="33">
-        <v>10</v>
-      </c>
-      <c r="BE23" s="32">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG23" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BL23" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM23" s="62"/>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>900</v>
-      </c>
-      <c r="B24" s="32">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>600</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="33">
-        <v>100.015</v>
-      </c>
-      <c r="K24" s="32">
-        <v>42</v>
-      </c>
-      <c r="T24" s="2">
-        <v>60</v>
       </c>
       <c r="U24" s="57">
         <v>1.5379</v>
       </c>
-      <c r="AG24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="BE24" s="32"/>
+      <c r="V24" s="33">
+        <v>10</v>
+      </c>
+      <c r="W24" s="32">
+        <v>0</v>
+      </c>
+      <c r="X24" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>6105.5</v>
+      </c>
+      <c r="Z24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>-350</v>
+      </c>
+      <c r="AF24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AU24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AW24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="33">
+        <v>10</v>
+      </c>
+      <c r="AY24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BA24" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BC24" s="32">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="33">
+        <v>10</v>
+      </c>
+      <c r="BE24" s="32">
+        <v>0</v>
+      </c>
       <c r="BF24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BG24" s="34">
         <v>0</v>
       </c>
       <c r="BI24" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ24" s="21">
         <v>0</v>
       </c>
-      <c r="BL24" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM24" s="64"/>
+      <c r="BL24" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM24" s="72"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="B25" s="32">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E25" s="2">
-        <v>770</v>
+        <v>600</v>
       </c>
       <c r="F25" s="32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J25" s="33">
-        <v>580</v>
+        <v>100.015</v>
       </c>
       <c r="K25" s="32">
         <v>42</v>
       </c>
       <c r="T25" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U25" s="57">
         <v>1.5379</v>
@@ -6150,81 +6244,85 @@
       <c r="AW25" s="32"/>
       <c r="BE25" s="32"/>
       <c r="BF25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BG25" s="34">
         <v>0</v>
       </c>
       <c r="BI25" s="22" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="BJ25" s="21">
         <v>0</v>
       </c>
-      <c r="BL25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL25" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM25" s="74"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="B26" s="32">
         <v>30000</v>
       </c>
       <c r="E26" s="2">
-        <v>920</v>
+        <v>770</v>
       </c>
       <c r="F26" s="32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J26" s="33">
-        <v>580.01499999999999</v>
+        <v>580</v>
       </c>
       <c r="K26" s="32">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="T26" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" s="57">
+        <v>1.5379</v>
       </c>
       <c r="AG26" s="32"/>
       <c r="AO26" s="32"/>
       <c r="AW26" s="32"/>
       <c r="BE26" s="32"/>
       <c r="BF26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BG26" s="34">
         <v>0</v>
       </c>
       <c r="BI26" s="22" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="BJ26" s="21">
         <v>0</v>
       </c>
-      <c r="BL26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM26" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BL26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="B27" s="32">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="E27" s="2">
-        <v>1750</v>
+        <v>920</v>
       </c>
       <c r="F27" s="32">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="33">
-        <v>1600</v>
+        <v>580.01499999999999</v>
       </c>
       <c r="K27" s="32">
         <v>70</v>
@@ -6234,46 +6332,55 @@
       <c r="AW27" s="32"/>
       <c r="BE27" s="32"/>
       <c r="BF27" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BG27" s="34">
         <v>0</v>
       </c>
       <c r="BI27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BJ27" s="21">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>3200</v>
+        <v>2250</v>
       </c>
       <c r="B28" s="32">
         <v>32000</v>
       </c>
       <c r="E28" s="2">
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="F28" s="32">
         <v>0.67</v>
       </c>
       <c r="J28" s="33">
-        <v>1600.0150000000001</v>
+        <v>1600</v>
       </c>
       <c r="K28" s="32">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AG28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AW28" s="32"/>
       <c r="BE28" s="32"/>
       <c r="BF28" s="5" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="BG28" s="34">
         <v>0</v>
       </c>
       <c r="BI28" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ28" s="21">
         <v>0</v>
@@ -6281,32 +6388,32 @@
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="B29" s="32">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="E29" s="2">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="F29" s="32">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="J29" s="33">
-        <v>1950</v>
+        <v>1600.0150000000001</v>
       </c>
       <c r="K29" s="32">
         <v>72</v>
       </c>
       <c r="BE29" s="32"/>
       <c r="BF29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BG29" s="34">
         <v>0</v>
       </c>
       <c r="BI29" s="22" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="BJ29" s="21">
         <v>0</v>
@@ -6314,66 +6421,65 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="B30" s="32">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="E30" s="2">
-        <v>3800</v>
+        <v>2250</v>
       </c>
       <c r="F30" s="32">
         <v>0.7</v>
       </c>
       <c r="J30" s="33">
-        <v>1950.0150000000001</v>
+        <v>1950</v>
       </c>
       <c r="K30" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BE30" s="32"/>
       <c r="BF30" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BG30" s="34">
         <v>0</v>
       </c>
       <c r="BI30" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BJ30" s="21">
         <v>0</v>
       </c>
-      <c r="BO30" s="9"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="B31" s="32">
         <v>28000</v>
       </c>
       <c r="E31" s="2">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="F31" s="32">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J31" s="33">
-        <v>2100</v>
+        <v>1950.0150000000001</v>
       </c>
       <c r="K31" s="32">
         <v>70</v>
       </c>
       <c r="BE31" s="32"/>
       <c r="BF31" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BG31" s="34">
         <v>0</v>
       </c>
       <c r="BI31" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BJ31" s="21">
         <v>0</v>
@@ -6382,65 +6488,66 @@
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="B32" s="32">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="E32" s="2">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F32" s="32">
         <v>0.5</v>
       </c>
       <c r="J32" s="33">
-        <v>2100.0149999999999</v>
+        <v>2100</v>
       </c>
       <c r="K32" s="32">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BE32" s="32"/>
       <c r="BF32" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BG32" s="34">
         <v>0</v>
       </c>
       <c r="BI32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BJ32" s="21">
         <v>0</v>
       </c>
+      <c r="BO32" s="9"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="B33" s="32">
         <v>12000</v>
       </c>
       <c r="E33" s="2">
-        <v>4730</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="32">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J33" s="33">
-        <v>2250</v>
+        <v>2100.0149999999999</v>
       </c>
       <c r="K33" s="32">
         <v>72</v>
       </c>
       <c r="BE33" s="32"/>
       <c r="BF33" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BG33" s="34">
         <v>0</v>
       </c>
       <c r="BI33" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BJ33" s="21">
         <v>0</v>
@@ -6448,32 +6555,32 @@
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="B34" s="32">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="E34" s="2">
-        <v>4950</v>
+        <v>4730</v>
       </c>
       <c r="F34" s="32">
         <v>0.3</v>
       </c>
       <c r="J34" s="33">
-        <v>2250.0149999999999</v>
+        <v>2250</v>
       </c>
       <c r="K34" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BE34" s="32"/>
       <c r="BF34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BG34" s="34">
         <v>0</v>
       </c>
       <c r="BI34" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BJ34" s="21">
         <v>0</v>
@@ -6481,32 +6588,32 @@
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="B35" s="32">
         <v>5500</v>
       </c>
       <c r="E35" s="2">
-        <v>5150</v>
+        <v>4950</v>
       </c>
       <c r="F35" s="32">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J35" s="33">
-        <v>3800</v>
+        <v>2250.0149999999999</v>
       </c>
       <c r="K35" s="32">
         <v>70</v>
       </c>
       <c r="BE35" s="32"/>
       <c r="BF35" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BG35" s="34">
         <v>0</v>
       </c>
       <c r="BI35" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BJ35" s="21">
         <v>0</v>
@@ -6514,32 +6621,32 @@
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="B36" s="32">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E36" s="2">
-        <v>5205</v>
+        <v>5150</v>
       </c>
       <c r="F36" s="32">
         <v>0.2</v>
       </c>
       <c r="J36" s="33">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="K36" s="32">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BE36" s="32"/>
       <c r="BF36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BG36" s="34">
         <v>0</v>
       </c>
       <c r="BI36" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BJ36" s="21">
         <v>0</v>
@@ -6547,94 +6654,113 @@
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="B37" s="32">
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>5400</v>
+        <v>5205</v>
       </c>
       <c r="F37" s="32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J37" s="33">
-        <v>4200</v>
+        <v>3801</v>
       </c>
       <c r="K37" s="32">
         <v>60</v>
       </c>
       <c r="BE37" s="32"/>
       <c r="BF37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BG37" s="34">
         <v>0</v>
       </c>
       <c r="BI37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ37" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>6200</v>
+      </c>
+      <c r="B38" s="32">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="F38" s="32">
         <v>0</v>
       </c>
       <c r="J38" s="33">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="K38" s="32">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BE38" s="32"/>
       <c r="BF38" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG38" s="34">
         <v>0</v>
       </c>
       <c r="BI38" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BJ38" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>6200</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
       <c r="J39" s="33">
-        <v>5000</v>
+        <v>4201</v>
       </c>
       <c r="K39" s="32">
         <v>45</v>
       </c>
       <c r="BE39" s="32"/>
-      <c r="BF39" s="6" t="s">
+      <c r="BF39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG39" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="33">
+        <v>5000</v>
+      </c>
+      <c r="K40" s="32">
+        <v>45</v>
+      </c>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="BG39" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI39" s="22" t="s">
+      <c r="BG40" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="BJ39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="J40" s="33">
-        <v>5001</v>
-      </c>
-      <c r="K40" s="32">
-        <v>42</v>
-      </c>
-      <c r="BI40" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="BJ40" s="21">
         <v>0</v>
@@ -6642,13 +6768,13 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="J41" s="33">
-        <v>6000</v>
+        <v>5001</v>
       </c>
       <c r="K41" s="32">
         <v>42</v>
       </c>
       <c r="BI41" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BJ41" s="21">
         <v>0</v>
@@ -6656,13 +6782,13 @@
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="J42" s="33">
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="K42" s="32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BI42" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BJ42" s="21">
         <v>0</v>
@@ -6670,21 +6796,27 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="J43" s="33">
-        <v>6200</v>
+        <v>6001</v>
       </c>
       <c r="K43" s="32">
         <v>40</v>
       </c>
       <c r="BI43" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ43" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="J44" s="33">
+        <v>6200</v>
+      </c>
+      <c r="K44" s="32">
+        <v>40</v>
+      </c>
+      <c r="BI44" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="BJ43" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="BI44" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="BJ44" s="21">
         <v>0</v>
@@ -6692,7 +6824,7 @@
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="BI45" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BJ45" s="21">
         <v>0</v>
@@ -6700,7 +6832,7 @@
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="BI46" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BJ46" s="21">
         <v>0</v>
@@ -6708,60 +6840,68 @@
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="BI47" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ47" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BI48" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="BJ47" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BI48" s="35" t="s">
+      <c r="BJ48" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="61:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI49" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BJ48" s="36">
+      <c r="BJ49" s="36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BL18:BM18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="BL19:BM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="BI20:BJ20"/>
+    <mergeCell ref="BL20:BM20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="J19:BG19"/>
     <mergeCell ref="BI19:BJ19"/>
-    <mergeCell ref="BL19:BM19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="J18:BG18"/>
-    <mergeCell ref="BI18:BJ18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="BL23:BM23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
     <mergeCell ref="BL24:BM24"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="BL25:BM25"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BF20:BG20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
